--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
@@ -73,43 +73,43 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Clicks per session</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Clicks on folder</t>
@@ -118,34 +118,34 @@
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
+    <t>Quizzes started</t>
   </si>
 </sst>
 </file>
@@ -802,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -834,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,25 +869,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -898,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -933,10 +933,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -971,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1026,28 +1026,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -1058,10 +1058,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1122,28 +1122,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1282,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1799,21 +1799,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1927,18 +1927,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1959,18 +1959,18 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2002,25 +2002,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,31 +2028,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,22 +2092,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2279,12 +2279,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2311,12 +2311,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3321,22 +3321,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3348,15 +3348,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3397,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,24 +3464,24 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -3572,21 +3572,21 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3668,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3969,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,22 +4102,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4129,18 +4129,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -4152,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4201,13 +4201,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4257,12 +4257,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,13 +4294,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,48 +4326,48 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4431,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,22 +4582,22 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
@@ -73,7 +73,16 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -82,16 +91,13 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -100,16 +106,10 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
@@ -121,31 +121,31 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
 </sst>
 </file>
@@ -802,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -834,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,25 +869,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -898,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -933,25 +933,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -971,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -997,28 +997,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2156,22 +2156,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2183,36 +2183,36 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2279,12 +2279,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2311,12 +2311,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2503,12 +2503,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,30 +3083,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3170,13 +3170,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3188,12 +3188,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3327,16 +3327,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3348,15 +3348,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,16 +3385,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,24 +3464,24 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -3540,21 +3540,21 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3636,12 +3636,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3668,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -4129,12 +4129,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4149,30 +4149,30 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4204,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4230,19 +4230,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -4257,12 +4257,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4274,19 +4274,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,22 +4294,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4326,31 +4326,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4385,18 +4385,18 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -4417,82 +4417,82 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4513,12 +4513,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4545,18 +4545,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4577,27 +4577,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,16 +4646,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,13 +4710,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4769,12 +4769,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
@@ -64,6 +64,9 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
@@ -73,22 +76,19 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
     <t>Clicks per session</t>
   </si>
   <si>
     <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -97,10 +97,10 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -109,25 +109,25 @@
     <t>Assignments viewed</t>
   </si>
   <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -136,7 +136,7 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -145,7 +145,7 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,25 +869,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -898,28 +898,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -965,25 +965,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1090,28 +1090,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2159,10 +2159,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2279,12 +2279,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,13 +2841,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2868,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3080,33 +3080,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3324,60 +3324,60 @@
         <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,31 +3385,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,12 +3444,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3609,13 +3609,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,22 +4134,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4161,12 +4161,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4233,10 +4233,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4262,13 +4262,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,31 +4326,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,22 +4358,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4385,18 +4385,18 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -4417,50 +4417,50 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4481,44 +4481,44 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4577,27 +4577,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,16 +4646,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4769,12 +4769,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
@@ -64,9 +64,6 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
@@ -76,31 +73,31 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
     <t>Clicks per session</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -109,7 +106,7 @@
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
@@ -118,16 +115,19 @@
     <t>Clicks on folder</t>
   </si>
   <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -136,7 +136,7 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -145,7 +145,7 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Discussions viewed</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,25 +869,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -898,28 +898,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -968,25 +968,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -997,28 +997,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1026,7 +1026,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,28 +1058,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1122,28 +1122,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1982,21 +1982,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,31 +2092,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,45 +2124,45 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2252,16 +2252,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2503,12 +2503,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3080,33 +3080,33 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3115,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3188,12 +3188,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3467,13 +3467,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3531,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,13 +4111,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4134,16 +4134,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4248,24 +4248,24 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4326,31 +4326,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,31 +4454,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4489,7 +4489,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4498,27 +4498,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_10.xlsx
@@ -64,6 +64,9 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
@@ -76,10 +79,13 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -88,40 +94,34 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Quizzes started</t>
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,31 +1058,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,28 +1093,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1772,13 +1772,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1982,21 +1982,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,31 +2092,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,39 +2124,39 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2197,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3097,22 +3097,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3211,21 +3211,21 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -3417,31 +3417,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3531,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -3641,13 +3641,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3977,13 +3977,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4161,12 +4161,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,31 +4230,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4326,31 +4326,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4358,39 +4358,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4498,22 +4498,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,22 +4582,22 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4609,12 +4609,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
